--- a/test/testdata/test_ETH_SB_simplevalue_1_owner_3_deposits.xlsx
+++ b/test/testdata/test_ETH_SB_simplevalue_1_owner_3_deposits.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="37">
   <si>
     <t>User ID</t>
   </si>
@@ -615,10 +615,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E178" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>7.9158288943315114E-4</v>
+        <v>5.3042501336530989E-4</v>
       </c>
       <c r="J69" s="5">
         <v>8960.2448253926577</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>7.9178961753934018E-4</v>
+        <v>5.305635380352669E-4</v>
       </c>
       <c r="J70" s="5">
         <v>8960.2448253926577</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>7.9199639963434265E-4</v>
+        <v>5.3070209888206321E-4</v>
       </c>
       <c r="J71" s="5">
         <v>8971.0273957792324</v>
@@ -2914,7 +2914,7 @@
         <v>44.855136978896162</v>
       </c>
       <c r="I72">
-        <v>7.922032357319253E-4</v>
+        <v>5.308406959150247E-4</v>
       </c>
       <c r="J72" s="5">
         <v>8926.1722588003358</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>7.92410125846299E-4</v>
+        <v>5.3097932914347723E-4</v>
       </c>
       <c r="J73" s="5">
         <v>1.0165784255430001E-2</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>7.9261706999167458E-4</v>
+        <v>5.3111799857763486E-4</v>
       </c>
       <c r="J74" s="5">
         <v>2.7658038144199999</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>7.9282406818226292E-4</v>
+        <v>5.3125670422593529E-4</v>
       </c>
       <c r="J75" s="5">
         <v>2.8286326263800001</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>7.9303112043183077E-4</v>
+        <v>5.3139544609859257E-4</v>
       </c>
       <c r="J76" s="5">
         <v>1.179304213428E-2</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>7.9323822675503308E-4</v>
+        <v>5.3153422420448848E-4</v>
       </c>
       <c r="J77" s="5">
         <v>1.2275927648119999E-2</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>7.9344538716563662E-4</v>
+        <v>5.3167303855339298E-4</v>
       </c>
       <c r="J78" s="5">
         <v>2.7793247289299998</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>7.9365260167740814E-4</v>
+        <v>5.3181188915507605E-4</v>
       </c>
       <c r="J79" s="5">
         <v>2.6888556824999998</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>7.9385987030544669E-4</v>
+        <v>5.3195077601841945E-4</v>
       </c>
       <c r="J80" s="5">
         <v>1.2522780239580001E-2</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>7.9406719306307494E-4</v>
+        <v>5.3208969915319315E-4</v>
       </c>
       <c r="J81" s="5">
         <v>2.57295344443</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>7.9427456996450374E-4</v>
+        <v>5.3222865856916712E-4</v>
       </c>
       <c r="J82" s="5">
         <v>1.1717079194879999E-2</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>7.9448200102438804E-4</v>
+        <v>5.3236765427522315E-4</v>
       </c>
       <c r="J83" s="5">
         <v>2.6786434549</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>7.9468948625605051E-4</v>
+        <v>5.3250668628113118E-4</v>
       </c>
       <c r="J84" s="5">
         <v>1.00749958758E-2</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>7.948970256745902E-4</v>
+        <v>5.326457545962171E-4</v>
       </c>
       <c r="J85" s="5">
         <v>8.8453512129400003E-3</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>7.9510461929332976E-4</v>
+        <v>5.3278485923025087E-4</v>
       </c>
       <c r="J86" s="5">
         <v>2.6395876168500001</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>7.9531226712736824E-4</v>
+        <v>5.3292400019255837E-4</v>
       </c>
       <c r="J87" s="5">
         <v>400</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>7.9551996918958423E-4</v>
+        <v>5.3306317749246546E-4</v>
       </c>
       <c r="J88" s="5">
         <v>400</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>7.9572772549507675E-4</v>
+        <v>5.332023911397421E-4</v>
       </c>
       <c r="J89" s="5">
         <v>400</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>7.9593553605805667E-4</v>
+        <v>5.3334164114371418E-4</v>
       </c>
       <c r="J90" s="5">
         <v>4000</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>7.9614340089184665E-4</v>
+        <v>5.3348092751370757E-4</v>
       </c>
       <c r="J91" s="5">
         <v>2.4701965056600002</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>7.9635132001154574E-4</v>
+        <v>5.3362025025993631E-4</v>
       </c>
       <c r="J92" s="5">
         <v>8.8305420042E-3</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>7.9655929343092069E-4</v>
+        <v>5.3375960939083811E-4</v>
       </c>
       <c r="J93" s="5">
         <v>4000</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>7.9676732116418236E-4</v>
+        <v>5.3389900491662701E-4</v>
       </c>
       <c r="J94" s="5">
         <v>4000</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>7.9697540322554161E-4</v>
+        <v>5.3403843684707297E-4</v>
       </c>
       <c r="J95" s="5">
         <v>2.33325306928</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>7.9718353962920929E-4</v>
+        <v>5.3417790519105779E-4</v>
       </c>
       <c r="J96" s="5">
         <v>9.0367178832000006E-3</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>7.9739173038895217E-4</v>
+        <v>5.3431740995790733E-4</v>
       </c>
       <c r="J97" s="5">
         <v>2.1183949595249998</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>7.9759997551986928E-4</v>
+        <v>5.3445695115783565E-4</v>
       </c>
       <c r="J98" s="5">
         <v>2.4304469719199999</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>7.9780827503528329E-4</v>
+        <v>5.3459652880016861E-4</v>
       </c>
       <c r="J99" s="5">
         <v>1.9135972569465001</v>
@@ -3882,7 +3882,7 @@
         <v>22</v>
       </c>
       <c r="I100">
-        <v>1.059174505018134E-3</v>
+        <v>7.9589401896207335E-4</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
@@ -3899,7 +3899,7 @@
         <v>22</v>
       </c>
       <c r="I101">
-        <v>1.059451116781851E-3</v>
+        <v>7.9610187295342527E-4</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
@@ -3916,7 +3916,7 @@
         <v>22</v>
       </c>
       <c r="I102">
-        <v>1.0597278007855591E-3</v>
+        <v>7.9630978122802176E-4</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
@@ -3933,7 +3933,7 @@
         <v>22</v>
       </c>
       <c r="I103">
-        <v>1.0600045570470229E-3</v>
+        <v>7.965177437991855E-4</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
@@ -3950,7 +3950,7 @@
         <v>22</v>
       </c>
       <c r="I104">
-        <v>1.060281385585782E-3</v>
+        <v>7.9672576068112733E-4</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -3967,7 +3967,7 @@
         <v>22</v>
       </c>
       <c r="I105">
-        <v>1.0605582864204881E-3</v>
+        <v>7.9693383188894629E-4</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
@@ -3984,7 +3984,7 @@
         <v>22</v>
       </c>
       <c r="I106">
-        <v>1.0608352595697921E-3</v>
+        <v>7.9714195743552096E-4</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
@@ -4001,7 +4001,7 @@
         <v>22</v>
       </c>
       <c r="I107">
-        <v>1.061112305053236E-3</v>
+        <v>7.9735013733639448E-4</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
@@ -4018,7 +4018,7 @@
         <v>22</v>
       </c>
       <c r="I108">
-        <v>1.0613894228894689E-3</v>
+        <v>7.9755837160444543E-4</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
@@ -4035,7 +4035,7 @@
         <v>22</v>
       </c>
       <c r="I109">
-        <v>1.0616666130962571E-3</v>
+        <v>7.9776666025477283E-4</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
@@ -4052,7 +4052,7 @@
         <v>22</v>
       </c>
       <c r="I110">
-        <v>1.0619438756940269E-3</v>
+        <v>7.9797500330158755E-4</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
@@ -4069,7 +4069,7 @@
         <v>22</v>
       </c>
       <c r="I111">
-        <v>1.062221210701431E-3</v>
+        <v>7.9818340075865635E-4</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
@@ -4086,7 +4086,7 @@
         <v>22</v>
       </c>
       <c r="I112">
-        <v>1.0624986181362319E-3</v>
+        <v>7.9839185264019008E-4</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.4">
@@ -4103,7 +4103,7 @@
         <v>22</v>
       </c>
       <c r="I113">
-        <v>1.0627760980188581E-3</v>
+        <v>7.9860035896084369E-4</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.4">
@@ -4120,7 +4120,7 @@
         <v>22</v>
       </c>
       <c r="I114">
-        <v>1.063053650367962E-3</v>
+        <v>7.9880891973438395E-4</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.4">
@@ -4137,7 +4137,7 @@
         <v>22</v>
       </c>
       <c r="I115">
-        <v>1.0633312752013071E-3</v>
+        <v>7.990175349750217E-4</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
@@ -4154,7 +4154,7 @@
         <v>22</v>
       </c>
       <c r="I116">
-        <v>1.0636089725384319E-3</v>
+        <v>7.992262046974119E-4</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
@@ -4171,7 +4171,7 @@
         <v>22</v>
       </c>
       <c r="I117">
-        <v>1.063886742398878E-3</v>
+        <v>7.994349289157654E-4</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
@@ -4188,7 +4188,7 @@
         <v>22</v>
       </c>
       <c r="I118">
-        <v>1.0641645848004091E-3</v>
+        <v>7.9964370764384896E-4</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
@@ -4205,7 +4205,7 @@
         <v>22</v>
       </c>
       <c r="I119">
-        <v>1.0644424997634521E-3</v>
+        <v>7.9985254089587343E-4</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
@@ -4222,7 +4222,7 @@
         <v>22</v>
       </c>
       <c r="I120">
-        <v>1.0647204873057701E-3</v>
+        <v>8.0006142868693786E-4</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
@@ -4239,7 +4239,7 @@
         <v>22</v>
       </c>
       <c r="I121">
-        <v>1.064998547446905E-3</v>
+        <v>8.0027037103036491E-4</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
@@ -4256,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="I122">
-        <v>1.0652766802055069E-3</v>
+        <v>8.0047936794036545E-4</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
@@ -4273,7 +4273,7 @@
         <v>22</v>
       </c>
       <c r="I123">
-        <v>1.065554885601117E-3</v>
+        <v>8.006884194320385E-4</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
@@ -4290,7 +4290,7 @@
         <v>22</v>
       </c>
       <c r="I124">
-        <v>1.0658331636514971E-3</v>
+        <v>8.0089752551915083E-4</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
@@ -4307,7 +4307,7 @@
         <v>22</v>
       </c>
       <c r="I125">
-        <v>1.066111514377077E-3</v>
+        <v>8.011066862159133E-4</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
@@ -4324,7 +4324,7 @@
         <v>22</v>
       </c>
       <c r="I126">
-        <v>1.0663899377956201E-3</v>
+        <v>8.0131590153653676E-4</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
@@ -4341,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="I127">
-        <v>1.066668433926665E-3</v>
+        <v>8.0152517149523206E-4</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
@@ -4358,7 +4358,7 @@
         <v>22</v>
       </c>
       <c r="I128">
-        <v>1.066947002789753E-3</v>
+        <v>8.0173449610665415E-4</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -4375,7 +4375,7 @@
         <v>22</v>
       </c>
       <c r="I129">
-        <v>1.0672256444026469E-3</v>
+        <v>8.0194387538501388E-4</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
@@ -4392,7 +4392,7 @@
         <v>22</v>
       </c>
       <c r="I130">
-        <v>1.067504358784888E-3</v>
+        <v>8.0215330934407802E-4</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
@@ -4409,7 +4409,7 @@
         <v>22</v>
       </c>
       <c r="I131">
-        <v>1.0677831459560141E-3</v>
+        <v>8.0236279799894561E-4</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
@@ -4426,7 +4426,7 @@
         <v>22</v>
       </c>
       <c r="I132">
-        <v>1.0680620059346779E-3</v>
+        <v>8.0257234136293931E-4</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
@@ -4443,7 +4443,7 @@
         <v>22</v>
       </c>
       <c r="I133">
-        <v>1.0683409387395319E-3</v>
+        <v>8.0278193945115817E-4</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
@@ -4460,7 +4460,7 @@
         <v>22</v>
       </c>
       <c r="I134">
-        <v>1.068619944390115E-3</v>
+        <v>8.0299159227736894E-4</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
@@ -4477,7 +4477,7 @@
         <v>22</v>
       </c>
       <c r="I135">
-        <v>1.068899022905079E-3</v>
+        <v>8.0320129985578248E-4</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
@@ -4494,7 +4494,7 @@
         <v>22</v>
       </c>
       <c r="I136">
-        <v>1.0691781743039639E-3</v>
+        <v>8.0341106220149783E-4</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
@@ -4511,7 +4511,7 @@
         <v>22</v>
       </c>
       <c r="I137">
-        <v>1.0694573986045339E-3</v>
+        <v>8.0362087932828175E-4</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
@@ -4528,7 +4528,7 @@
         <v>22</v>
       </c>
       <c r="I138">
-        <v>1.069736695827217E-3</v>
+        <v>8.0383075125034509E-4</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
@@ -4545,7 +4545,7 @@
         <v>22</v>
       </c>
       <c r="I139">
-        <v>1.0700160659906639E-3</v>
+        <v>8.0404067798189871E-4</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
@@ -4562,7 +4562,7 @@
         <v>22</v>
       </c>
       <c r="I140">
-        <v>1.070295509114416E-3</v>
+        <v>8.0425065953759756E-4</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
@@ -4579,7 +4579,7 @@
         <v>22</v>
       </c>
       <c r="I141">
-        <v>1.070575025216236E-3</v>
+        <v>8.0446069593165248E-4</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
@@ -4596,7 +4596,7 @@
         <v>22</v>
       </c>
       <c r="I142">
-        <v>1.0708546143156641E-3</v>
+        <v>8.0467078717827434E-4</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
@@ -4613,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="I143">
-        <v>1.07113427643224E-3</v>
+        <v>8.0488093329211807E-4</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
@@ -4630,7 +4630,7 @@
         <v>22</v>
       </c>
       <c r="I144">
-        <v>1.0714140115855031E-3</v>
+        <v>8.0509113428695045E-4</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.4">
@@ -4647,7 +4647,7 @@
         <v>22</v>
       </c>
       <c r="I145">
-        <v>1.071693819793218E-3</v>
+        <v>8.053013901778705E-4</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.4">
@@ -4664,7 +4664,7 @@
         <v>22</v>
       </c>
       <c r="I146">
-        <v>1.071973701074924E-3</v>
+        <v>8.05511700978645E-4</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.4">
@@ -4681,7 +4681,7 @@
         <v>22</v>
       </c>
       <c r="I147">
-        <v>1.072253655449273E-3</v>
+        <v>8.0572206670348478E-4</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
@@ -4698,7 +4698,7 @@
         <v>22</v>
       </c>
       <c r="I148">
-        <v>1.072533682936694E-3</v>
+        <v>8.0593248736704481E-4</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
@@ -4715,7 +4715,7 @@
         <v>22</v>
       </c>
       <c r="I149">
-        <v>1.0728137835558369E-3</v>
+        <v>8.0614296298353594E-4</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
@@ -4732,7 +4732,7 @@
         <v>22</v>
       </c>
       <c r="I150">
-        <v>1.0730939573244671E-3</v>
+        <v>8.063534935676131E-4</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
@@ -4749,7 +4749,7 @@
         <v>22</v>
       </c>
       <c r="I151">
-        <v>1.073374204263011E-3</v>
+        <v>8.0656407913348716E-4</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
@@ -4766,7 +4766,7 @@
         <v>22</v>
       </c>
       <c r="I152">
-        <v>1.0736545243910101E-3</v>
+        <v>8.0677471969536896E-4</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
@@ -4783,7 +4783,7 @@
         <v>22</v>
       </c>
       <c r="I153">
-        <v>1.073934917726227E-3</v>
+        <v>8.0698541526746936E-4</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
@@ -4800,7 +4800,7 @@
         <v>22</v>
       </c>
       <c r="I154">
-        <v>1.0742153842882021E-3</v>
+        <v>8.0719616586444332E-4</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
@@ -4817,7 +4817,7 @@
         <v>22</v>
       </c>
       <c r="I155">
-        <v>1.0744959240964751E-3</v>
+        <v>8.0740697150094576E-4</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.4">
@@ -4834,7 +4834,7 @@
         <v>22</v>
       </c>
       <c r="I156">
-        <v>1.0747765371696969E-3</v>
+        <v>8.0761783219074346E-4</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.4">
@@ -4851,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="I157">
-        <v>1.075057223527409E-3</v>
+        <v>8.0782874794849135E-4</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.4">
@@ -4868,7 +4868,7 @@
         <v>22</v>
       </c>
       <c r="I158">
-        <v>1.075337983188263E-3</v>
+        <v>8.0803971878840031E-4</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.4">
@@ -4885,7 +4885,7 @@
         <v>22</v>
       </c>
       <c r="I159">
-        <v>1.075618816172685E-3</v>
+        <v>8.0825074472512526E-4</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.4">
@@ -4902,7 +4902,7 @@
         <v>22</v>
       </c>
       <c r="I160">
-        <v>1.0758997224975531E-3</v>
+        <v>8.0846182577287706E-4</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.4">
@@ -4919,7 +4919,7 @@
         <v>22</v>
       </c>
       <c r="I161">
-        <v>1.076180702184182E-3</v>
+        <v>8.0867296194631066E-4</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
@@ -4936,7 +4936,7 @@
         <v>22</v>
       </c>
       <c r="I162">
-        <v>1.0764617552503351E-3</v>
+        <v>8.0888415325963692E-4</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.4">
@@ -4953,7 +4953,7 @@
         <v>22</v>
       </c>
       <c r="I163">
-        <v>1.0767428817164419E-3</v>
+        <v>8.0909539972706668E-4</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
@@ -4970,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="I164">
-        <v>1.0770240816002641E-3</v>
+        <v>8.0930670136325489E-4</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.4">
@@ -4987,7 +4987,7 @@
         <v>22</v>
       </c>
       <c r="I165">
-        <v>1.0773053549222309E-3</v>
+        <v>8.095180581824124E-4</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.4">
@@ -5004,7 +5004,7 @@
         <v>22</v>
       </c>
       <c r="I166">
-        <v>1.077586701700106E-3</v>
+        <v>8.0972947019919417E-4</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.4">
@@ -5021,7 +5021,7 @@
         <v>22</v>
       </c>
       <c r="I167">
-        <v>1.0778681219543169E-3</v>
+        <v>8.0994093742781104E-4</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
@@ -5038,7 +5038,7 @@
         <v>22</v>
       </c>
       <c r="I168">
-        <v>1.078149615704405E-3</v>
+        <v>8.1015245988247386E-4</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
@@ -5055,7 +5055,7 @@
         <v>22</v>
       </c>
       <c r="I169">
-        <v>1.078431182968131E-3</v>
+        <v>8.1036403757828168E-4</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
@@ -5072,7 +5072,7 @@
         <v>22</v>
       </c>
       <c r="I170">
-        <v>1.0787128237650381E-3</v>
+        <v>8.1057567052900126E-4</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
@@ -5089,7 +5089,7 @@
         <v>22</v>
       </c>
       <c r="I171">
-        <v>1.0789945381146639E-3</v>
+        <v>8.1078735874973162E-4</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
@@ -5106,7 +5106,7 @@
         <v>22</v>
       </c>
       <c r="I172">
-        <v>1.079276326036549E-3</v>
+        <v>8.1099910225423955E-4</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
@@ -5123,7 +5123,7 @@
         <v>22</v>
       </c>
       <c r="I173">
-        <v>1.079558187550234E-3</v>
+        <v>8.1121090105717997E-4</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
@@ -5140,7 +5140,7 @@
         <v>22</v>
       </c>
       <c r="I174">
-        <v>1.0798401226734811E-3</v>
+        <v>8.1142275517320783E-4</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
@@ -5157,7 +5157,7 @@
         <v>22</v>
       </c>
       <c r="I175">
-        <v>1.0801221314258309E-3</v>
+        <v>8.11634664616534E-4</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.4">
@@ -5174,7 +5174,7 @@
         <v>22</v>
       </c>
       <c r="I176">
-        <v>1.080404213827713E-3</v>
+        <v>8.118466294018134E-4</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.4">
@@ -5191,7 +5191,7 @@
         <v>22</v>
       </c>
       <c r="I177">
-        <v>1.080686369897776E-3</v>
+        <v>8.1205864954325691E-4</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.4">
@@ -5208,7 +5208,7 @@
         <v>22</v>
       </c>
       <c r="I178">
-        <v>1.080968599654675E-3</v>
+        <v>8.1227072505551945E-4</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.4">
@@ -5225,7 +5225,7 @@
         <v>22</v>
       </c>
       <c r="I179">
-        <v>1.0812509031179469E-3</v>
+        <v>8.1248285595281189E-4</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.4">
@@ -5242,7 +5242,7 @@
         <v>22</v>
       </c>
       <c r="I180">
-        <v>1.081533280308022E-3</v>
+        <v>8.1269504224978917E-4</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.4">
@@ -5259,7 +5259,7 @@
         <v>22</v>
       </c>
       <c r="I181">
-        <v>1.0818157312417751E-3</v>
+        <v>8.1290728396066214E-4</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.4">
@@ -5276,7 +5276,7 @@
         <v>22</v>
       </c>
       <c r="I182">
-        <v>1.0820982559405219E-3</v>
+        <v>8.1311958110052984E-4</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.4">
@@ -5293,7 +5293,7 @@
         <v>22</v>
       </c>
       <c r="I183">
-        <v>1.082380854422915E-3</v>
+        <v>8.1333193368315904E-4</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.4">
@@ -5310,7 +5310,7 @@
         <v>22</v>
       </c>
       <c r="I184">
-        <v>1.0826635267076059E-3</v>
+        <v>8.1354434172364876E-4</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.4">
@@ -5327,7 +5327,7 @@
         <v>22</v>
       </c>
       <c r="I185">
-        <v>1.0829462728150221E-3</v>
+        <v>8.1375680523620986E-4</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.4">
@@ -5344,7 +5344,7 @@
         <v>22</v>
       </c>
       <c r="I186">
-        <v>1.0832290927638159E-3</v>
+        <v>8.1396932423505319E-4</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.4">
@@ -5361,7 +5361,7 @@
         <v>22</v>
       </c>
       <c r="I187">
-        <v>1.0835119865726379E-3</v>
+        <v>8.1418189873483371E-4</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.4">
@@ -5378,7 +5378,7 @@
         <v>22</v>
       </c>
       <c r="I188">
-        <v>1.083794954261919E-3</v>
+        <v>8.1439452875020635E-4</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.4">
@@ -5395,7 +5395,7 @@
         <v>22</v>
       </c>
       <c r="I189">
-        <v>1.0840779958503079E-3</v>
+        <v>8.1460721429582605E-4</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.4">
@@ -5412,7 +5412,534 @@
         <v>22</v>
       </c>
       <c r="I190">
-        <v>1.0843611113573459E-3</v>
+        <v>8.1481995538545959E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A191" s="10">
+        <v>44378</v>
+      </c>
+      <c r="B191" s="10">
+        <v>44378</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I191">
+        <v>1.076190628102047E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A192" s="10">
+        <v>44379</v>
+      </c>
+      <c r="B192" s="10">
+        <v>44379</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I192">
+        <v>1.0764716837607931E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A193" s="10">
+        <v>44380</v>
+      </c>
+      <c r="B193" s="10">
+        <v>44380</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I193">
+        <v>1.076752812819493E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A194" s="10">
+        <v>44381</v>
+      </c>
+      <c r="B194" s="10">
+        <v>44381</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I194">
+        <v>1.0770340152967961E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A195" s="10">
+        <v>44382</v>
+      </c>
+      <c r="B195" s="10">
+        <v>44382</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I195">
+        <v>1.0773152912131321E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A196" s="10">
+        <v>44383</v>
+      </c>
+      <c r="B196" s="10">
+        <v>44383</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I196">
+        <v>1.0775966405862649E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A197" s="10">
+        <v>44384</v>
+      </c>
+      <c r="B197" s="10">
+        <v>44384</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I197">
+        <v>1.077878063436621E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A198" s="10">
+        <v>44385</v>
+      </c>
+      <c r="B198" s="10">
+        <v>44385</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I198">
+        <v>1.078159559781966E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A199" s="10">
+        <v>44386</v>
+      </c>
+      <c r="B199" s="10">
+        <v>44386</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I199">
+        <v>1.078441129642727E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A200" s="10">
+        <v>44387</v>
+      </c>
+      <c r="B200" s="10">
+        <v>44387</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I200">
+        <v>1.078722773037555E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A201" s="10">
+        <v>44388</v>
+      </c>
+      <c r="B201" s="10">
+        <v>44388</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I201">
+        <v>1.079004489985991E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A202" s="10">
+        <v>44389</v>
+      </c>
+      <c r="B202" s="10">
+        <v>44389</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I202">
+        <v>1.0792862805066861E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A203" s="10">
+        <v>44390</v>
+      </c>
+      <c r="B203" s="10">
+        <v>44390</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I203">
+        <v>1.0795681446191809E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A204" s="10">
+        <v>44391</v>
+      </c>
+      <c r="B204" s="10">
+        <v>44391</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I204">
+        <v>1.079850082343015E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A205" s="10">
+        <v>44392</v>
+      </c>
+      <c r="B205" s="10">
+        <v>44392</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I205">
+        <v>1.0801320936968391E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A206" s="10">
+        <v>44393</v>
+      </c>
+      <c r="B206" s="10">
+        <v>44393</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206">
+        <v>1.0804141787001951E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A207" s="10">
+        <v>44394</v>
+      </c>
+      <c r="B207" s="10">
+        <v>44394</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I207">
+        <v>1.0806963373726219E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A208" s="10">
+        <v>44395</v>
+      </c>
+      <c r="B208" s="10">
+        <v>44395</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I208">
+        <v>1.080978569732771E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A209" s="10">
+        <v>44396</v>
+      </c>
+      <c r="B209" s="10">
+        <v>44396</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I209">
+        <v>1.0812608758001829E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A210" s="10">
+        <v>44397</v>
+      </c>
+      <c r="B210" s="10">
+        <v>44397</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I210">
+        <v>1.0815432555943969E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A211" s="10">
+        <v>44398</v>
+      </c>
+      <c r="B211" s="10">
+        <v>44398</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I211">
+        <v>1.0818257091331769E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A212" s="10">
+        <v>44399</v>
+      </c>
+      <c r="B212" s="10">
+        <v>44399</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I212">
+        <v>1.08210823643784E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A213" s="10">
+        <v>44400</v>
+      </c>
+      <c r="B213" s="10">
+        <v>44400</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I213">
+        <v>1.0823908375270359E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A214" s="10">
+        <v>44401</v>
+      </c>
+      <c r="B214" s="10">
+        <v>44401</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I214">
+        <v>1.0826735124185301E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A215" s="10">
+        <v>44402</v>
+      </c>
+      <c r="B215" s="10">
+        <v>44402</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I215">
+        <v>1.082956261133639E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A216" s="10">
+        <v>44403</v>
+      </c>
+      <c r="B216" s="10">
+        <v>44403</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I216">
+        <v>1.083239083691012E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A217" s="10">
+        <v>44404</v>
+      </c>
+      <c r="B217" s="10">
+        <v>44404</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I217">
+        <v>1.083521980109303E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A218" s="10">
+        <v>44405</v>
+      </c>
+      <c r="B218" s="10">
+        <v>44405</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I218">
+        <v>1.083804950408052E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A219" s="10">
+        <v>44406</v>
+      </c>
+      <c r="B219" s="10">
+        <v>44406</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I219">
+        <v>1.0840879946076849E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A220" s="10">
+        <v>44407</v>
+      </c>
+      <c r="B220" s="10">
+        <v>44407</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I220">
+        <v>1.0843711127250799E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A221" s="10">
+        <v>44408</v>
+      </c>
+      <c r="B221" s="10">
+        <v>44408</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I221">
+        <v>1.08465430478244E-3</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata/test_ETH_SB_simplevalue_1_owner_3_deposits.xlsx
+++ b/test/testdata/test_ETH_SB_simplevalue_1_owner_3_deposits.xlsx
@@ -617,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191:A221"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4392,7 +4392,7 @@
         <v>22</v>
       </c>
       <c r="I130">
-        <v>8.0215330934407802E-4</v>
+        <v>1.0633111854119191E-3</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
@@ -4409,7 +4409,7 @@
         <v>22</v>
       </c>
       <c r="I131">
-        <v>8.0236279799894561E-4</v>
+        <v>1.063588877502575E-3</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
@@ -4426,7 +4426,7 @@
         <v>22</v>
       </c>
       <c r="I132">
-        <v>8.0257234136293931E-4</v>
+        <v>1.0638666421147751E-3</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
@@ -4443,7 +4443,7 @@
         <v>22</v>
       </c>
       <c r="I133">
-        <v>8.0278193945115817E-4</v>
+        <v>1.064144479268059E-3</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
@@ -4460,7 +4460,7 @@
         <v>22</v>
       </c>
       <c r="I134">
-        <v>8.0299159227736894E-4</v>
+        <v>1.0644223889801909E-3</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
@@ -4477,7 +4477,7 @@
         <v>22</v>
       </c>
       <c r="I135">
-        <v>8.0320129985578248E-4</v>
+        <v>1.064700371269822E-3</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
@@ -4494,7 +4494,7 @@
         <v>22</v>
       </c>
       <c r="I136">
-        <v>8.0341106220149783E-4</v>
+        <v>1.0649784261573809E-3</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
@@ -4511,7 +4511,7 @@
         <v>22</v>
       </c>
       <c r="I137">
-        <v>8.0362087932828175E-4</v>
+        <v>1.0652565536615199E-3</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
@@ -4528,7 +4528,7 @@
         <v>22</v>
       </c>
       <c r="I138">
-        <v>8.0383075125034509E-4</v>
+        <v>1.0655347538008899E-3</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
@@ -4545,7 +4545,7 @@
         <v>22</v>
       </c>
       <c r="I139">
-        <v>8.0404067798189871E-4</v>
+        <v>1.0658130265941419E-3</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
@@ -4562,7 +4562,7 @@
         <v>22</v>
       </c>
       <c r="I140">
-        <v>8.0425065953759756E-4</v>
+        <v>1.0660913720599301E-3</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
@@ -4579,7 +4579,7 @@
         <v>22</v>
       </c>
       <c r="I141">
-        <v>8.0446069593165248E-4</v>
+        <v>1.0663697902186799E-3</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
@@ -4596,7 +4596,7 @@
         <v>22</v>
       </c>
       <c r="I142">
-        <v>8.0467078717827434E-4</v>
+        <v>1.0666482810881559E-3</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
@@ -4613,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="I143">
-        <v>8.0488093329211807E-4</v>
+        <v>1.066926844687899E-3</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
@@ -4630,7 +4630,7 @@
         <v>22</v>
       </c>
       <c r="I144">
-        <v>8.0509113428695045E-4</v>
+        <v>1.067205481036559E-3</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.4">
@@ -4647,7 +4647,7 @@
         <v>22</v>
       </c>
       <c r="I145">
-        <v>8.053013901778705E-4</v>
+        <v>1.0674841901527901E-3</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.4">
@@ -4664,7 +4664,7 @@
         <v>22</v>
       </c>
       <c r="I146">
-        <v>8.05511700978645E-4</v>
+        <v>1.0677629720570181E-3</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.4">
@@ -4681,7 +4681,7 @@
         <v>22</v>
       </c>
       <c r="I147">
-        <v>8.0572206670348478E-4</v>
+        <v>1.068041826767008E-3</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
@@ -4698,7 +4698,7 @@
         <v>22</v>
       </c>
       <c r="I148">
-        <v>8.0593248736704481E-4</v>
+        <v>1.068320754302299E-3</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
@@ -4715,7 +4715,7 @@
         <v>22</v>
       </c>
       <c r="I149">
-        <v>8.0614296298353594E-4</v>
+        <v>1.0685997546806549E-3</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
@@ -4732,7 +4732,7 @@
         <v>22</v>
       </c>
       <c r="I150">
-        <v>8.063534935676131E-4</v>
+        <v>1.0688788279233921E-3</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
@@ -4749,7 +4749,7 @@
         <v>22</v>
       </c>
       <c r="I151">
-        <v>8.0656407913348716E-4</v>
+        <v>1.069157974047386E-3</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
@@ -4766,7 +4766,7 @@
         <v>22</v>
       </c>
       <c r="I152">
-        <v>8.0677471969536896E-4</v>
+        <v>1.069437193073064E-3</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
@@ -4783,7 +4783,7 @@
         <v>22</v>
       </c>
       <c r="I153">
-        <v>8.0698541526746936E-4</v>
+        <v>1.069716485019079E-3</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
@@ -4800,7 +4800,7 @@
         <v>22</v>
       </c>
       <c r="I154">
-        <v>8.0719616586444332E-4</v>
+        <v>1.06999584990497E-3</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
@@ -4817,7 +4817,7 @@
         <v>22</v>
       </c>
       <c r="I155">
-        <v>8.0740697150094576E-4</v>
+        <v>1.0702752877485009E-3</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.4">
@@ -4834,7 +4834,7 @@
         <v>22</v>
       </c>
       <c r="I156">
-        <v>8.0761783219074346E-4</v>
+        <v>1.0705547985692121E-3</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.4">
@@ -4851,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="I157">
-        <v>8.0782874794849135E-4</v>
+        <v>1.0708343823866431E-3</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.4">
@@ -4868,7 +4868,7 @@
         <v>22</v>
       </c>
       <c r="I158">
-        <v>8.0803971878840031E-4</v>
+        <v>1.0711140392194449E-3</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.4">
@@ -4885,7 +4885,7 @@
         <v>22</v>
       </c>
       <c r="I159">
-        <v>8.0825074472512526E-4</v>
+        <v>1.0713937690871591E-3</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.4">
@@ -4902,7 +4902,7 @@
         <v>22</v>
       </c>
       <c r="I160">
-        <v>8.0846182577287706E-4</v>
+        <v>1.071673572008436E-3</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.4">
@@ -4919,7 +4919,7 @@
         <v>22</v>
       </c>
       <c r="I161">
-        <v>8.0867296194631066E-4</v>
+        <v>1.0719534480019279E-3</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
@@ -4936,7 +4936,7 @@
         <v>22</v>
       </c>
       <c r="I162">
-        <v>8.0888415325963692E-4</v>
+        <v>1.0722333970880631E-3</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.4">
@@ -4953,7 +4953,7 @@
         <v>22</v>
       </c>
       <c r="I163">
-        <v>8.0909539972706668E-4</v>
+        <v>1.072513419284604E-3</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
@@ -4970,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="I164">
-        <v>8.0930670136325489E-4</v>
+        <v>1.0727935146110921E-3</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.4">
@@ -4987,7 +4987,7 @@
         <v>22</v>
       </c>
       <c r="I165">
-        <v>8.095180581824124E-4</v>
+        <v>1.0730736830870671E-3</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.4">
@@ -5004,7 +5004,7 @@
         <v>22</v>
       </c>
       <c r="I166">
-        <v>8.0972947019919417E-4</v>
+        <v>1.0733539247311801E-3</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.4">
@@ -5021,7 +5021,7 @@
         <v>22</v>
       </c>
       <c r="I167">
-        <v>8.0994093742781104E-4</v>
+        <v>1.0736342395620819E-3</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
@@ -5038,7 +5038,7 @@
         <v>22</v>
       </c>
       <c r="I168">
-        <v>8.1015245988247386E-4</v>
+        <v>1.073914627599315E-3</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
@@ -5055,7 +5055,7 @@
         <v>22</v>
       </c>
       <c r="I169">
-        <v>8.1036403757828168E-4</v>
+        <v>1.074195088863306E-3</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
@@ -5072,7 +5072,7 @@
         <v>22</v>
       </c>
       <c r="I170">
-        <v>8.1057567052900126E-4</v>
+        <v>1.07447562337093E-3</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
@@ -5089,7 +5089,7 @@
         <v>22</v>
       </c>
       <c r="I171">
-        <v>8.1078735874973162E-4</v>
+        <v>1.0747562311426151E-3</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
@@ -5106,7 +5106,7 @@
         <v>22</v>
       </c>
       <c r="I172">
-        <v>8.1099910225423955E-4</v>
+        <v>1.075036912197014E-3</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
@@ -5123,7 +5123,7 @@
         <v>22</v>
       </c>
       <c r="I173">
-        <v>8.1121090105717997E-4</v>
+        <v>1.0753176665536661E-3</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
@@ -5140,7 +5140,7 @@
         <v>22</v>
       </c>
       <c r="I174">
-        <v>8.1142275517320783E-4</v>
+        <v>1.075598494231222E-3</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
@@ -5157,7 +5157,7 @@
         <v>22</v>
       </c>
       <c r="I175">
-        <v>8.11634664616534E-4</v>
+        <v>1.075879395250112E-3</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.4">
@@ -5174,7 +5174,7 @@
         <v>22</v>
       </c>
       <c r="I176">
-        <v>8.118466294018134E-4</v>
+        <v>1.076160369628099E-3</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.4">
@@ -5191,7 +5191,7 @@
         <v>22</v>
       </c>
       <c r="I177">
-        <v>8.1205864954325691E-4</v>
+        <v>1.076441417383833E-3</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.4">
@@ -5208,7 +5208,7 @@
         <v>22</v>
       </c>
       <c r="I178">
-        <v>8.1227072505551945E-4</v>
+        <v>1.076722538538633E-3</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.4">
@@ -5225,7 +5225,7 @@
         <v>22</v>
       </c>
       <c r="I179">
-        <v>8.1248285595281189E-4</v>
+        <v>1.077003733109372E-3</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.4">
@@ -5242,7 +5242,7 @@
         <v>22</v>
       </c>
       <c r="I180">
-        <v>8.1269504224978917E-4</v>
+        <v>1.0772850011173669E-3</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.4">
@@ -5259,7 +5259,7 @@
         <v>22</v>
       </c>
       <c r="I181">
-        <v>8.1290728396066214E-4</v>
+        <v>1.077566342580383E-3</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.4">
@@ -5276,7 +5276,7 @@
         <v>22</v>
       </c>
       <c r="I182">
-        <v>8.1311958110052984E-4</v>
+        <v>1.07784775751707E-3</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.4">
@@ -5293,7 +5293,7 @@
         <v>22</v>
       </c>
       <c r="I183">
-        <v>8.1333193368315904E-4</v>
+        <v>1.078129245948745E-3</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.4">
@@ -5310,7 +5310,7 @@
         <v>22</v>
       </c>
       <c r="I184">
-        <v>8.1354434172364876E-4</v>
+        <v>1.0784108078922829E-3</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.4">
@@ -5327,7 +5327,7 @@
         <v>22</v>
       </c>
       <c r="I185">
-        <v>8.1375680523620986E-4</v>
+        <v>1.078692443368112E-3</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.4">
@@ -5344,7 +5344,7 @@
         <v>22</v>
       </c>
       <c r="I186">
-        <v>8.1396932423505319E-4</v>
+        <v>1.078974152395773E-3</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.4">
@@ -5361,7 +5361,7 @@
         <v>22</v>
       </c>
       <c r="I187">
-        <v>8.1418189873483371E-4</v>
+        <v>1.079255934993917E-3</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.4">
@@ -5378,7 +5378,7 @@
         <v>22</v>
       </c>
       <c r="I188">
-        <v>8.1439452875020635E-4</v>
+        <v>1.079537791181195E-3</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.4">
@@ -5395,7 +5395,7 @@
         <v>22</v>
       </c>
       <c r="I189">
-        <v>8.1460721429582605E-4</v>
+        <v>1.0798197209780369E-3</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.4">
@@ -5412,7 +5412,7 @@
         <v>22</v>
       </c>
       <c r="I190">
-        <v>8.1481995538545959E-4</v>
+        <v>1.080101724403093E-3</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.4">
@@ -5429,7 +5429,7 @@
         <v>22</v>
       </c>
       <c r="I191">
-        <v>1.076190628102047E-3</v>
+        <v>1.080383801475016E-3</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.4">
@@ -5446,7 +5446,7 @@
         <v>22</v>
       </c>
       <c r="I192">
-        <v>1.0764716837607931E-3</v>
+        <v>1.080665952214233E-3</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.4">
@@ -5463,7 +5463,7 @@
         <v>22</v>
       </c>
       <c r="I193">
-        <v>1.076752812819493E-3</v>
+        <v>1.080948176639396E-3</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.4">
@@ -5480,7 +5480,7 @@
         <v>22</v>
       </c>
       <c r="I194">
-        <v>1.0770340152967961E-3</v>
+        <v>1.081230474769157E-3</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.4">
@@ -5497,7 +5497,7 @@
         <v>22</v>
       </c>
       <c r="I195">
-        <v>1.0773152912131321E-3</v>
+        <v>1.0815128466230559E-3</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.4">
@@ -5514,7 +5514,7 @@
         <v>22</v>
       </c>
       <c r="I196">
-        <v>1.0775966405862649E-3</v>
+        <v>1.081795292221521E-3</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.4">
@@ -5531,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="I197">
-        <v>1.077878063436621E-3</v>
+        <v>1.082077811582316E-3</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.4">
@@ -5548,7 +5548,7 @@
         <v>22</v>
       </c>
       <c r="I198">
-        <v>1.078159559781966E-3</v>
+        <v>1.08236040472498E-3</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.4">
@@ -5565,7 +5565,7 @@
         <v>22</v>
       </c>
       <c r="I199">
-        <v>1.078441129642727E-3</v>
+        <v>1.082643071669942E-3</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.4">
@@ -5582,7 +5582,7 @@
         <v>22</v>
       </c>
       <c r="I200">
-        <v>1.078722773037555E-3</v>
+        <v>1.082925812434965E-3</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.4">
@@ -5599,7 +5599,7 @@
         <v>22</v>
       </c>
       <c r="I201">
-        <v>1.079004489985991E-3</v>
+        <v>1.0832086270395891E-3</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.4">
@@ -5616,7 +5616,7 @@
         <v>22</v>
       </c>
       <c r="I202">
-        <v>1.0792862805066861E-3</v>
+        <v>1.083491515504242E-3</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.4">
@@ -5633,7 +5633,7 @@
         <v>22</v>
       </c>
       <c r="I203">
-        <v>1.0795681446191809E-3</v>
+        <v>1.0837744778475771E-3</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.4">
@@ -5650,7 +5650,7 @@
         <v>22</v>
       </c>
       <c r="I204">
-        <v>1.079850082343015E-3</v>
+        <v>1.084057514088244E-3</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.4">
@@ -5667,7 +5667,7 @@
         <v>22</v>
       </c>
       <c r="I205">
-        <v>1.0801320936968391E-3</v>
+        <v>1.0843406242457829E-3</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.4">
@@ -5684,7 +5684,7 @@
         <v>22</v>
       </c>
       <c r="I206">
-        <v>1.0804141787001951E-3</v>
+        <v>1.084623808340623E-3</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.4">
@@ -5701,7 +5701,7 @@
         <v>22</v>
       </c>
       <c r="I207">
-        <v>1.0806963373726219E-3</v>
+        <v>1.084907066390528E-3</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.4">
@@ -5718,7 +5718,7 @@
         <v>22</v>
       </c>
       <c r="I208">
-        <v>1.080978569732771E-3</v>
+        <v>1.085190398415925E-3</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.4">
@@ -5735,7 +5735,7 @@
         <v>22</v>
       </c>
       <c r="I209">
-        <v>1.0812608758001829E-3</v>
+        <v>1.0854738044354659E-3</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.4">
@@ -5752,7 +5752,7 @@
         <v>22</v>
       </c>
       <c r="I210">
-        <v>1.0815432555943969E-3</v>
+        <v>1.0857572844686909E-3</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.4">
@@ -5769,7 +5769,7 @@
         <v>22</v>
       </c>
       <c r="I211">
-        <v>1.0818257091331769E-3</v>
+        <v>1.086040838535141E-3</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.4">
@@ -5786,7 +5786,7 @@
         <v>22</v>
       </c>
       <c r="I212">
-        <v>1.08210823643784E-3</v>
+        <v>1.0863244666534651E-3</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.4">
@@ -5803,7 +5803,7 @@
         <v>22</v>
       </c>
       <c r="I213">
-        <v>1.0823908375270359E-3</v>
+        <v>1.0866081688440941E-3</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.4">
@@ -5820,7 +5820,7 @@
         <v>22</v>
       </c>
       <c r="I214">
-        <v>1.0826735124185301E-3</v>
+        <v>1.0868919451256791E-3</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.4">
@@ -5837,7 +5837,7 @@
         <v>22</v>
       </c>
       <c r="I215">
-        <v>1.082956261133639E-3</v>
+        <v>1.087175795517759E-3</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.4">
@@ -5854,7 +5854,7 @@
         <v>22</v>
       </c>
       <c r="I216">
-        <v>1.083239083691012E-3</v>
+        <v>1.0874597200389859E-3</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.4">
@@ -5871,7 +5871,7 @@
         <v>22</v>
       </c>
       <c r="I217">
-        <v>1.083521980109303E-3</v>
+        <v>1.087743718709788E-3</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.4">
@@ -5888,7 +5888,7 @@
         <v>22</v>
       </c>
       <c r="I218">
-        <v>1.083804950408052E-3</v>
+        <v>1.0880277915488179E-3</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.4">
@@ -5905,7 +5905,7 @@
         <v>22</v>
       </c>
       <c r="I219">
-        <v>1.0840879946076849E-3</v>
+        <v>1.088311938576503E-3</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.4">
@@ -5922,7 +5922,7 @@
         <v>22</v>
       </c>
       <c r="I220">
-        <v>1.0843711127250799E-3</v>
+        <v>1.088596159810606E-3</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.4">
@@ -5939,7 +5939,7 @@
         <v>22</v>
       </c>
       <c r="I221">
-        <v>1.08465430478244E-3</v>
+        <v>1.088880455271557E-3</v>
       </c>
     </row>
   </sheetData>
